--- a/Front-End/WareHouse/src/assets/Data_Allocation.xlsx
+++ b/Front-End/WareHouse/src/assets/Data_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastianHerrera\Desktop\Python\Tesis\Asignacion Read and Write\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastianHerrera\Desktop\WarehouseCF\Front-End\WareHouse\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C614EE3-F4CF-4272-8F94-15B102D79DB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0349BF-AEE5-491B-9783-1E2F0D006353}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AABD20AD-CA46-432D-A071-4A6F7317ADF3}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:P544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F13" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
